--- a/python_challenges/python_challenges.xlsx
+++ b/python_challenges/python_challenges.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="341">
   <si>
     <t>Difficulty</t>
   </si>
@@ -1442,9 +1442,6 @@
     <t>    Takes in a list of dictionaries with a key and list of </t>
   </si>
   <si>
-    <t>    integers and returns a dictionary with the standard devaition</t>
-  </si>
-  <si>
     <t>    of each list.</t>
   </si>
   <si>
@@ -1807,9 +1804,6 @@
     <t>    If it rained yesterday and today, there is a 20%</t>
   </si>
   <si>
-    <t>    chance it will rain tomorrow. If ti rained one </t>
-  </si>
-  <si>
     <t>    of the days, there is a 60% chance it will rain</t>
   </si>
   <si>
@@ -2571,9 +2565,6 @@
     </r>
   </si>
   <si>
-    <t>    Return a list of all the bigrams in a string</t>
-  </si>
-  <si>
     <t>    words = s.split()</t>
   </si>
   <si>
@@ -3481,6 +3472,2754 @@
       </rPr>
       <t>.join(output)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> datetime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> datetime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> greater_release_dates(L1:typing.List, L2:typing.List, D:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <t>    Return the list with more dates past a certain input</t>
+  </si>
+  <si>
+    <t>    variable date D</t>
+  </si>
+  <si>
+    <r>
+      <t>    D_datetime = datetime.strptime(D, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'%Y-%m-%d'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    cnt_L1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>  i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(L1)):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        date_L1 = datetime.strptime(L1[i],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'%Y-%m-%d'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> date_L1 &gt; D_datetime:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            cnt_L1 += </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    cnt_L2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(L2)):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        date_L2 = datetime.strptime(L2[i],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'%Y-%m-%d'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> date_L2 &gt; D_datetime:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            cnt_L2 += </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> cnt_L2 &gt; cnt_L1:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> L2 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> cnt_L2 &lt; cnt_L1:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> L1</t>
+    </r>
+  </si>
+  <si>
+    <t>Greater Release Dates</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>2 loops   +   convert to datetime.strptime()</t>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> recurring_char(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <t>    Return None if there is no recurring character.</t>
+  </si>
+  <si>
+    <t>    Treat upper/lower case as distinct</t>
+  </si>
+  <si>
+    <r>
+      <t>    seen = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> letter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> letter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> seen:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> letter</t>
+    </r>
+  </si>
+  <si>
+    <t>        seen.add(letter)</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>None</t>
+    </r>
+  </si>
+  <si>
+    <t>Recurring character</t>
+  </si>
+  <si>
+    <t>Use set() to keep track of unique chars</t>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> moving_window(input_list,window_size):</t>
+    </r>
+  </si>
+  <si>
+    <t>    Given a list of numbers and an integer window_size,</t>
+  </si>
+  <si>
+    <t>    find the moving window average.</t>
+  </si>
+  <si>
+    <r>
+      <t>    n = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(input_list)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> i &lt; window_size:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            l = input_list[:i+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            l = input_list[(i-window_size + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):i+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        mv_avg = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(l)/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(l)</t>
+    </r>
+  </si>
+  <si>
+    <t>        output.append(mv_avg)</t>
+  </si>
+  <si>
+    <t>Moving window</t>
+  </si>
+  <si>
+    <t>tricky indexing</t>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> swap_values(numbers):</t>
+    </r>
+  </si>
+  <si>
+    <t>    You are given a dictionary with two keys a and b</t>
+  </si>
+  <si>
+    <t>    that hold integers as values. Swap the value of a</t>
+  </si>
+  <si>
+    <t>    with the value of b and vice versa.</t>
+  </si>
+  <si>
+    <r>
+      <t>    numbers[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] = numbers[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] + numbers[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    numbers[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] = numbers[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] - numbers[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    numbers[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] = numbers[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] - numbers[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> numbers</t>
+    </r>
+  </si>
+  <si>
+    <t>Sum both keys first</t>
+  </si>
+  <si>
+    <t>Swap Variables</t>
+  </si>
+  <si>
+    <t>    integers and returns a dictionary with the standard deviation</t>
+  </si>
+  <si>
+    <t>    chance it will rain tomorrow. If it rained one </t>
+  </si>
+  <si>
+    <t>    Return a list of all the bigrams in a string of words</t>
+  </si>
+  <si>
+    <t>    Given a string, find its first recurring character. </t>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> word_frequency(sentences:typing.List) -&gt; typing.Dict:</t>
+    </r>
+  </si>
+  <si>
+    <t>    Input:</t>
+  </si>
+  <si>
+    <t>    sentences = [</t>
+  </si>
+  <si>
+    <t>    "I love roses",</t>
+  </si>
+  <si>
+    <t>    "Roses are the best",</t>
+  </si>
+  <si>
+    <t>    "Roses are red violets are blue"</t>
+  </si>
+  <si>
+    <t>    ]</t>
+  </si>
+  <si>
+    <t>    Output:</t>
+  </si>
+  <si>
+    <t>    def word_frequency(sentences) -&gt; {</t>
+  </si>
+  <si>
+    <t>    1:["I","love","the","best","violets","blue"],</t>
+  </si>
+  <si>
+    <t>    3:["roses","are"]</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>    result = {}</t>
+  </si>
+  <si>
+    <t>    word_counts = {}</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> sentence </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> sentences:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        words = [word.lower() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> word </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> sentence.split()]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> word </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> words:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> word </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> word_counts:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                word_counts[word] += </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                word_counts[word] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> word </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> word_counts.keys():</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> word_counts[word] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> result:</t>
+    </r>
+  </si>
+  <si>
+    <t>            result[word_counts[word]].append(word)</t>
+  </si>
+  <si>
+    <t>            result[word_counts[word]] = [word]</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> result</t>
+    </r>
+  </si>
+  <si>
+    <t>Word Frequency</t>
+  </si>
+  <si>
+    <t>2 Dicts to flip keys to values and back</t>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> range_vehicles(vehicles, start, end):</t>
+    </r>
+  </si>
+  <si>
+    <t>    Input: </t>
+  </si>
+  <si>
+    <t>    vehicles = [5, 6, 4, 2, 1]</t>
+  </si>
+  <si>
+    <t>    start = 1</t>
+  </si>
+  <si>
+    <t>    end = 3</t>
+  </si>
+  <si>
+    <t>    --------</t>
+  </si>
+  <si>
+    <t>    10</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(vehicles[start:end])</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy </t>
+  </si>
+  <si>
+    <t>Counting Vehicles</t>
+  </si>
+  <si>
+    <t>Indexing 1 Line</t>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> fill_none(input_list:typing.List[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]) -&gt; typing.List[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]:</t>
+    </r>
+  </si>
+  <si>
+    <t>    Return a new list where all None values are replaced with the most</t>
+  </si>
+  <si>
+    <t>    recent non-None value in the list</t>
+  </si>
+  <si>
+    <t>    input_list = [1,2,None,None,4,5,None]</t>
+  </si>
+  <si>
+    <t>    -------</t>
+  </si>
+  <si>
+    <t>    [1,2,2,2,4,5,5] </t>
+  </si>
+  <si>
+    <r>
+      <t>    prev_value = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> input_list:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>            output.append(prev_value)</t>
+  </si>
+  <si>
+    <t>            output.append(value)</t>
+  </si>
+  <si>
+    <t>            prev_value = value</t>
+  </si>
+  <si>
+    <t>Fill None Values</t>
+  </si>
+  <si>
+    <t>Init prev_value = 0</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> pandas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> pd </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> delta_buss_days(d1, d2):</t>
+    </r>
+  </si>
+  <si>
+    <t>    Find number of BUSINESS DAYS between date range</t>
+  </si>
+  <si>
+    <t>    date1 = 2021-01-31</t>
+  </si>
+  <si>
+    <t>    date2 = 2021-02-18</t>
+  </si>
+  <si>
+    <t>    14</t>
+  </si>
+  <si>
+    <t>    dates = pd.date_range(d1, d2)</t>
+  </si>
+  <si>
+    <r>
+      <t>    daynumbers = [i.isoweekday() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> dates]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> daynumbers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> i &lt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t>Business Days</t>
+  </si>
+  <si>
+    <t>use pd.date_range() and i.isoweekday()</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> numpy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> np</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> generate_gaussian(n, mu, sigma):</t>
+    </r>
+  </si>
+  <si>
+    <t>    Generate a gaussian distribution</t>
+  </si>
+  <si>
+    <t>    n = 9</t>
+  </si>
+  <si>
+    <t>    mu = 3</t>
+  </si>
+  <si>
+    <t>    sigma = 1</t>
+  </si>
+  <si>
+    <t>    [1,2,2,3,3,3,4,4,5]</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> np.random.normal(mu,sigma,n).tolist()</t>
+    </r>
+  </si>
+  <si>
+    <t>Gaussian Generation</t>
+  </si>
+  <si>
+    <t>np.random.normal(mu,sigma,n).tolist()</t>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> n_frequent_words(posting,N):</t>
+    </r>
+  </si>
+  <si>
+    <t>    Return the top N frequent words in the posting and the </t>
+  </si>
+  <si>
+    <t>    frequencies for each word</t>
+  </si>
+  <si>
+    <t>    What is the function run-time?</t>
+  </si>
+  <si>
+    <t>    O(n) + O(n log n) = O(n log n)</t>
+  </si>
+  <si>
+    <t>    words = posting.lower().split()</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> word </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> d:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            d[word] += </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            d[word] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    values = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sorted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(d.items(), key = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> x: x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>], reverse=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> values[:N]</t>
+    </r>
+  </si>
+  <si>
+    <t>Get Top N Frequent Words</t>
+  </si>
+  <si>
+    <t>sorted(d.items(), key = lambda x: x[1], reverse=True)</t>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> weekly_aggregation(ts):</t>
+    </r>
+  </si>
+  <si>
+    <t>    Return a list of lists grouped by week</t>
+  </si>
+  <si>
+    <t>    ------</t>
+  </si>
+  <si>
+    <t>    ts = [</t>
+  </si>
+  <si>
+    <t>    '2019-01-01', </t>
+  </si>
+  <si>
+    <t>    '2019-01-02',</t>
+  </si>
+  <si>
+    <t>    '2019-01-08', </t>
+  </si>
+  <si>
+    <t>    '2019-02-01', </t>
+  </si>
+  <si>
+    <t>    '2019-02-02',</t>
+  </si>
+  <si>
+    <t>    '2019-02-05',</t>
+  </si>
+  <si>
+    <t>    [</t>
+  </si>
+  <si>
+    <t>    ['2019-01-01', '2019-01-02'], </t>
+  </si>
+  <si>
+    <t>    ['2019-01-08'], </t>
+  </si>
+  <si>
+    <t>    ['2019-02-01', '2019-02-02'],</t>
+  </si>
+  <si>
+    <t>    ['2019-02-05'],</t>
+  </si>
+  <si>
+    <r>
+      <t>    week_no = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>    week = []</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> i,t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>enumerate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ts):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> i == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            start_date = datetime.strptime(t,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"%Y-%m-%d"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>            week.append(t)</t>
+  </si>
+  <si>
+    <r>
+      <t>        next_date = datetime.strptime(t,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"%Y-%m-%d"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>        n_days = (next_date - start_date).days</t>
+  </si>
+  <si>
+    <r>
+      <t>        next_week_no = n_days // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> next_week_no == week_no:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> next_week_no &gt; week_no:</t>
+    </r>
+  </si>
+  <si>
+    <t>            week_no = next_week_no</t>
+  </si>
+  <si>
+    <t>            output.append(week)</t>
+  </si>
+  <si>
+    <t>            week = []</t>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Dates do not appear to be in order'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(week) &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>        output.append(week)</t>
+  </si>
+  <si>
+    <t>Weekly Aggregation</t>
+  </si>
+  <si>
+    <t>for loop   +   (next_day - start_day).days //7</t>
   </si>
 </sst>
 </file>
@@ -3528,12 +6267,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -3566,7 +6311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3599,6 +6344,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3881,17 +6629,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3991,10 +6739,10 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
         <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4002,16 +6750,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
         <v>107</v>
       </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s">
-        <v>109</v>
-      </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4025,10 +6773,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4042,10 +6790,10 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4059,10 +6807,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4076,10 +6824,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4093,10 +6841,197 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" t="s">
+        <v>339</v>
+      </c>
+      <c r="E23" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4106,11 +7041,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
+      <pane ySplit="1" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4134,7 +7069,7 @@
       <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -4147,7 +7082,7 @@
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4160,7 +7095,7 @@
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -4173,7 +7108,7 @@
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4186,7 +7121,7 @@
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4199,7 +7134,7 @@
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -4212,7 +7147,7 @@
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -4225,7 +7160,7 @@
       <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -4238,7 +7173,7 @@
       <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -4251,7 +7186,7 @@
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -4264,7 +7199,7 @@
       <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -4277,7 +7212,7 @@
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -4290,7 +7225,7 @@
       <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -4303,7 +7238,7 @@
       <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -4316,7 +7251,7 @@
       <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -4329,7 +7264,7 @@
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -4342,6 +7277,7 @@
       <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -4654,13 +7590,13 @@
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="9" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -4678,49 +7614,49 @@
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -4734,19 +7670,19 @@
         <v>6</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -4758,31 +7694,31 @@
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="9" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -4794,73 +7730,73 @@
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -4874,7 +7810,7 @@
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -4886,13 +7822,13 @@
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -4904,25 +7840,25 @@
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -4936,7 +7872,7 @@
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -4948,7 +7884,7 @@
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="9" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -4960,13 +7896,13 @@
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -4978,25 +7914,25 @@
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -5010,7 +7946,7 @@
         <v>9</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -5022,7 +7958,7 @@
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -5034,13 +7970,13 @@
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -5058,19 +7994,19 @@
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -5084,7 +8020,7 @@
         <v>10</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -5096,13 +8032,13 @@
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -5114,158 +8050,1411 @@
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="12">
         <v>11</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="3" t="s">
+      <c r="A160" s="6"/>
+      <c r="B160" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="6"/>
+      <c r="B161" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="4" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="6"/>
+      <c r="B162" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="6"/>
+      <c r="B163" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="6"/>
+      <c r="B164" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="6"/>
+      <c r="B165" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="6"/>
+      <c r="B166" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="6"/>
+      <c r="B167" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="6"/>
+      <c r="B168" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="6"/>
+      <c r="B169" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="4" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
+      <c r="B170" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="12">
+        <v>12</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="6"/>
+      <c r="B172" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="6"/>
+      <c r="B173" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="6"/>
+      <c r="B174" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="6"/>
+      <c r="B175" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="6"/>
+      <c r="B176" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="6"/>
+      <c r="B177" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="3" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="6"/>
+      <c r="B178" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="6"/>
+      <c r="B179" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="6"/>
+      <c r="B180" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="6"/>
+      <c r="B181" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="6"/>
+      <c r="B182" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="6"/>
+      <c r="B183" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="6"/>
+      <c r="B184" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="6"/>
+      <c r="B185" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="6"/>
+      <c r="B186" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="6"/>
+      <c r="B187" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="6"/>
+      <c r="B188" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="6"/>
+      <c r="B189" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="6"/>
+      <c r="B190" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="6"/>
+      <c r="B191" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="10"/>
+      <c r="B192" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>13</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="12">
+        <v>14</v>
+      </c>
+      <c r="B205" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="6"/>
+      <c r="B206" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="6"/>
+      <c r="B207" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="6"/>
+      <c r="B208" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="6"/>
+      <c r="B209" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="6"/>
+      <c r="B210" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="6"/>
+      <c r="B211" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="3" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="6"/>
+      <c r="B212" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="3" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="6"/>
+      <c r="B213" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="6"/>
+      <c r="B214" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="6"/>
+      <c r="B215" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="6"/>
+      <c r="B216" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="6"/>
+      <c r="B217" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="6"/>
+      <c r="B218" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="10"/>
+      <c r="B219" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="12">
+        <v>15</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="6"/>
+      <c r="B221" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="6"/>
+      <c r="B222" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="6"/>
+      <c r="B223" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="6"/>
+      <c r="B224" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="6"/>
+      <c r="B225" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="6"/>
+      <c r="B226" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="6"/>
+      <c r="B227" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="6"/>
+      <c r="B228" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="10"/>
+      <c r="B229" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="12">
+        <v>16</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="6"/>
+      <c r="B231" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="6"/>
+      <c r="B232" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="6"/>
+      <c r="B233" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="6"/>
+      <c r="B234" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="6"/>
+      <c r="B235" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="6"/>
+      <c r="B236" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="6"/>
+      <c r="B237" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="6"/>
+      <c r="B238" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="6"/>
+      <c r="B239" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="6"/>
+      <c r="B240" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="6"/>
+      <c r="B241" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="6"/>
+      <c r="B242" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="6"/>
+      <c r="B243" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="6"/>
+      <c r="B244" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="6"/>
+      <c r="B245" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="6"/>
+      <c r="B246" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="6"/>
+      <c r="B247" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="6"/>
+      <c r="B248" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="6"/>
+      <c r="B249" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="6"/>
+      <c r="B250" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="6"/>
+      <c r="B251" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="6"/>
+      <c r="B252" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="6"/>
+      <c r="B253" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="6"/>
+      <c r="B254" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="6"/>
+      <c r="B255" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="6"/>
+      <c r="B256" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="6"/>
+      <c r="B257" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="6"/>
+      <c r="B258" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="10"/>
+      <c r="B259" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="12">
+        <v>17</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="6"/>
+      <c r="B261" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="6"/>
+      <c r="B262" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="6"/>
+      <c r="B263" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="6"/>
+      <c r="B264" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="6"/>
+      <c r="B265" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="6"/>
+      <c r="B266" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="6"/>
+      <c r="B267" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="6"/>
+      <c r="B268" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="6"/>
+      <c r="B269" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="10"/>
+      <c r="B270" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="12">
+        <v>18</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="6"/>
+      <c r="B272" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="6"/>
+      <c r="B273" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="6"/>
+      <c r="B274" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="6"/>
+      <c r="B275" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="6"/>
+      <c r="B276" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="6"/>
+      <c r="B277" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="6"/>
+      <c r="B278" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="6"/>
+      <c r="B279" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="6"/>
+      <c r="B280" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="6"/>
+      <c r="B281" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="6"/>
+      <c r="B282" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="6"/>
+      <c r="B283" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="6"/>
+      <c r="B284" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="6"/>
+      <c r="B285" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="6"/>
+      <c r="B286" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="6"/>
+      <c r="B287" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="6"/>
+      <c r="B288" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="6"/>
+      <c r="B289" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="10"/>
+      <c r="B290" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="12">
+        <v>19</v>
+      </c>
+      <c r="B291" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="6"/>
+      <c r="B292" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="6"/>
+      <c r="B293" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="6"/>
+      <c r="B294" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="6"/>
+      <c r="B295" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="6"/>
+      <c r="B296" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="6"/>
+      <c r="B297" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="6"/>
+      <c r="B298" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="6"/>
+      <c r="B299" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="6"/>
+      <c r="B300" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="6"/>
+      <c r="B301" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="6"/>
+      <c r="B302" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="6"/>
+      <c r="B303" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="6"/>
+      <c r="B304" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="10"/>
+      <c r="B305" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="12">
+        <v>20</v>
+      </c>
+      <c r="B306" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="6"/>
+      <c r="B307" s="14"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="6"/>
+      <c r="B308" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="6"/>
+      <c r="B309" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="6"/>
+      <c r="B310" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="6"/>
+      <c r="B311" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="6"/>
+      <c r="B312" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="6"/>
+      <c r="B313" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="6"/>
+      <c r="B314" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="6"/>
+      <c r="B315" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="6"/>
+      <c r="B316" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="6"/>
+      <c r="B317" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="6"/>
+      <c r="B318" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="6"/>
+      <c r="B319" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="10"/>
+      <c r="B320" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="12">
+        <v>21</v>
+      </c>
+      <c r="B321" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="6"/>
+      <c r="B322" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="6"/>
+      <c r="B323" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="6"/>
+      <c r="B324" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="6"/>
+      <c r="B325" s="14"/>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="6"/>
+      <c r="B326" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="6"/>
+      <c r="B327" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="6"/>
+      <c r="B328" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="6"/>
+      <c r="B329" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="6"/>
+      <c r="B330" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="6"/>
+      <c r="B331" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="6"/>
+      <c r="B332" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="6"/>
+      <c r="B333" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="6"/>
+      <c r="B334" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="6"/>
+      <c r="B335" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="6"/>
+      <c r="B336" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="10"/>
+      <c r="B337" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>22</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="3"/>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B339" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B340" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B341" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B383" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
